--- a/xlsx/nor_oda_total_constant_tenyear.xlsx
+++ b/xlsx/nor_oda_total_constant_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Norsk bistand, 2014-2023, faste 2022-priser. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om total norsk bistand. 2014-2023, faste 2022-priser. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_total_constant_tenyear.xlsx
+++ b/xlsx/nor_oda_total_constant_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata inneholder data om total norsk bistand. 2014-2023, faste 2022-priser. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om total norsk bistand. 2015-2024, faste 2023-priser. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -409,15 +409,15 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>faste 2022-priser</t>
+          <t>faste 2023-priser</t>
         </is>
       </c>
       <c r="C2">
-        <v>49.50949706916597</v>
+        <v>50.15527384045763</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -425,15 +425,15 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>faste 2022-priser</t>
+          <t>faste 2023-priser</t>
         </is>
       </c>
       <c r="C3">
-        <v>54.81123461869394</v>
+        <v>54.37481314347259</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -441,15 +441,15 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>faste 2022-priser</t>
+          <t>faste 2023-priser</t>
         </is>
       </c>
       <c r="C4">
-        <v>59.42250431682669</v>
+        <v>48.44663426814898</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -457,15 +457,15 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>faste 2022-priser</t>
+          <t>faste 2023-priser</t>
         </is>
       </c>
       <c r="C5">
-        <v>52.94398423831221</v>
+        <v>46.07671376169099</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -473,15 +473,15 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>faste 2022-priser</t>
+          <t>faste 2023-priser</t>
         </is>
       </c>
       <c r="C6">
-        <v>50.35406027123237</v>
+        <v>50.58336860338107</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -489,15 +489,15 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>faste 2022-priser</t>
+          <t>faste 2023-priser</t>
         </is>
       </c>
       <c r="C7">
-        <v>55.2790871027092</v>
+        <v>54.20087538954551</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -505,15 +505,15 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>faste 2022-priser</t>
+          <t>faste 2023-priser</t>
         </is>
       </c>
       <c r="C8">
-        <v>59.23240760183727</v>
+        <v>45.83265074107133</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -521,15 +521,15 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>faste 2022-priser</t>
+          <t>faste 2023-priser</t>
         </is>
       </c>
       <c r="C9">
-        <v>51.41791750403225</v>
+        <v>44.10399752581176</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -537,15 +537,15 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>faste 2022-priser</t>
+          <t>faste 2023-priser</t>
         </is>
       </c>
       <c r="C10">
-        <v>49.61199786855099</v>
+        <v>58.58382481966923</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -553,15 +553,15 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>faste 2022-priser</t>
+          <t>faste 2023-priser</t>
         </is>
       </c>
       <c r="C11">
-        <v>64.94767258515866</v>
+        <v>56.36233197915161</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
